--- a/similarities/split_global/harmonic_similarity_timestamps_124.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_124.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,694 +484,750 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_66</t>
+          <t>schubert-winterreise_4</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_33</t>
+          <t>isophonics_53</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['C/G', 'G:7', 'C']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
+          <t>['A', 'D', 'A']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:04:22.920000', '0:04:29.360000')]</t>
+          <t>('0:01:06.520000', '0:01:10.140000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:01:05.440000', '0:01:06.820000')]</t>
+          <t>('0:00:40.490000', '0:00:47.860000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-66#t=262.92']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-4#t=66.52</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-33#t=65.44']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-53#t=40.49</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>jaah_78</t>
+          <t>schubert-winterreise_92</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>jaah_6</t>
+          <t>schubert-winterreise_150</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['Bb', 'F:7', 'Bb']]</t>
+          <t>['B:min', 'F#:7/C#', 'B:min/D']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:7', 'Eb']]</t>
+          <t>['D:min/A', 'A:7', 'D:min']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:49.560000', '0:00:55.720000')]</t>
+          <t>('0:00:00.360000', '0:00:02.440000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:14.300000', '0:00:15.210000')]</t>
+          <t>('0:02:20.480000', '0:02:25.980000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-78#t=49.56']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-92#t=0.36</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-6#t=14.3']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-150#t=140.48</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_4</t>
+          <t>schubert-winterreise_61</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
+          <t>schubert-winterreise_181</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:min/A', 'A:maj'], ['D:min', 'A:maj', 'D:min'], ['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['G:maj', 'G:7/F', 'C:maj/E']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min', 'C:maj'], ['F:min', 'C:maj', 'F:min'], ['F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>['D#:maj', 'D#:7', 'G#:maj']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:31.980000', '0:00:34.580000'), ('0:00:08.240000', '0:00:13.460000'), ('0:01:06.520000', '0:01:10.140000')]</t>
+          <t>('0:00:54.760000', '0:01:02.820000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:14.180000', '0:00:18.920000'), ('0:00:01.880000', '0:00:06.560000'), ('0:02:04.920000', '0:02:08.840000')]</t>
+          <t>('0:00:17.980000', '0:00:26.320000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-4#t=31.98', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-4#t=8.24', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-4#t=66.52']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=54.76</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-26#t=14.18', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-26#t=1.88', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-26#t=124.92']</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-181#t=17.98</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
+          <t>jaah_39</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_68</t>
+          <t>jaah_64</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>['Bb:7', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>['D:7', 'G:7', 'C:maj']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:02:01.740000', '0:02:03.780000')]</t>
+          <t>('0:00:48.180000', '0:00:50.270000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:33', '0:00:48.220000')]</t>
+          <t>('0:00:25.110000', '0:00:28.410000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-188#t=121.74']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-39#t=48.18</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-68#t=33.0']</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-64#t=25.11</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_198</t>
+          <t>schubert-winterreise_46</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_161</t>
+          <t>schubert-winterreise_192</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
+          <t>['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
+          <t>['F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:25.720000', '0:00:45.260000')]</t>
+          <t>('0:00:29.220000', '0:01:03.280000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:01.600000', '0:00:12.540000')]</t>
+          <t>('0:00:47.680000', '0:01:02.460000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-198#t=25.72']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-46#t=29.22</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-161#t=1.6']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-192#t=47.68</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_176</t>
+          <t>isophonics_291</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_195</t>
+          <t>schubert-winterreise_65</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['B:hdim7/D', 'E:7', 'A:min']]</t>
+          <t>['D', 'G', 'D', 'G', 'D']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['G:hdim7/A#', 'C:7', 'F:min']]</t>
+          <t>['D#:maj', 'G#:maj', 'D#:maj', 'G#:maj', 'D#:maj']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:11.400000', '0:00:16.740000')]</t>
+          <t>('0:00:03.044470', '0:00:14.983242')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:22.040000', '0:00:28.660000')]</t>
+          <t>('0:02:07.600000', '0:02:13.760000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-176#t=11.4']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-291#t=3.04447</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-195#t=22.04']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-65#t=127.6</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr"/>
+          <t>spotify:track:06ypiqmILMdVeaiErMFA91</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_95</t>
+          <t>schubert-winterreise_105</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_4</t>
+          <t>schubert-winterreise_36</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G', 'C:min']]</t>
+          <t>['G:min', 'D:7/G', 'G:min']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min']]</t>
+          <t>['G:min/D', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:11.240000', '0:00:17.760000')]</t>
+          <t>('0:00:19.480000', '0:00:25.860000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:08.240000', '0:00:13.460000')]</t>
+          <t>('0:00:47.580000', '0:00:50.040000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-95#t=11.24']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-105#t=19.48</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-4#t=8.24']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=47.58</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_183</t>
+          <t>schubert-winterreise_92</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>jaah_3</t>
+          <t>schubert-winterreise_26</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['G:maj', 'E:7/G#', 'A:min'], ['D:maj/A', 'G:maj', 'D:maj/A']]</t>
+          <t>['B:min', 'F#:maj/A#', 'B:min']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['Ab', 'F:7', 'Bb:min'], ['Eb', 'Ab', 'Eb']]</t>
+          <t>['F:min', 'C:maj', 'F:min']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:01:06.740000', '0:01:10.240000'), ('0:02:08.540000', '0:02:12.840000')]</t>
+          <t>('0:00:10.780000', '0:00:16.280000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:01:47.280000', '0:01:52.640000'), ('0:02:16.070000', '0:02:21.510000')]</t>
+          <t>('0:00:01.880000', '0:00:06.560000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-183#t=66.74', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-183#t=128.54']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-92#t=10.78</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-3#t=107.28', 'https://soundcloud.com/jacopo-de-berardinis/jaah-3#t=136.07']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-26#t=1.88</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_1</t>
+          <t>schubert-winterreise_132</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_16</t>
+          <t>schubert-winterreise_155</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj']]</t>
+          <t>['F:maj', 'C:7/A#', 'F:maj/A', 'C:7/A#', 'F:maj/A']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:19.140000', '0:00:22.240000')]</t>
+          <t>('0:01:14.900000', '0:01:33.840000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:01:12.820000', '0:01:24.380000')]</t>
+          <t>('0:00:01.460000', '0:00:11.260000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-1#t=19.14']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-132#t=74.9</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-16#t=72.82']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-155#t=1.46</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_72</t>
+          <t>isophonics_5</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_96</t>
+          <t>isophonics_6</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['D', 'A', 'D']]</t>
+          <t>['E', 'A', 'E', 'A', 'E']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:maj', 'F:maj']]</t>
+          <t>['D', 'G/5', 'D', 'G/5', 'D']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:32.074829', '0:00:37.705668')]</t>
+          <t>('0:00:09.162102', '0:00:17.463236')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:00.740000', '0:00:21.500000')]</t>
+          <t>('0:00:20.432000', '0:00:26.250000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-72#t=32.074829']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-5#t=9.162102</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-96#t=0.74']</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:5dpRJkvY8oWMQmQbEQTXhO</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-6#t=20.432</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>jaah_55</t>
+          <t>schubert-winterreise_186</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>jaah_31</t>
+          <t>schubert-winterreise_58</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:7', 'C']]</t>
+          <t>['F:min', 'C:7', 'F:min']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:7', 'C']]</t>
+          <t>['A:min', 'E:7/G#', 'A:min']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:45.970000', '0:00:52.390000')]</t>
+          <t>('0:00:08.460000', '0:00:13.460000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:58.670000', '0:01:04.130000')]</t>
+          <t>('0:00:37.960000', '0:00:44.800000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-55#t=45.97']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-186#t=8.46</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-31#t=58.67']</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-58#t=37.96</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_133</t>
+          <t>isophonics_15</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_159</t>
+          <t>schubert-winterreise_182</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['F', 'C', 'F']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A/3']]</t>
+          <t>['G:maj', 'D:maj/A', 'G:maj/B']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:01:01.600000', '0:01:03.840000')]</t>
+          <t>('0:00:33.724965', '0:00:54.715804')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:13.527000', '0:00:17.058000')]</t>
+          <t>('0:02:37.160000', '0:02:40.380000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-133#t=61.6']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-15#t=33.724965</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-159#t=13.527']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-182#t=157.16</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_152</t>
+          <t>schubert-winterreise_143</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_114</t>
+          <t>isophonics_245</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['E', 'A/3', 'E/5', 'A/3']]</t>
+          <t>['B:min', 'E:min/B', 'B:min', 'D:maj/A']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['B', 'E', 'B', 'E']]</t>
+          <t>['F#:min', 'B:min', 'F#:min', 'A']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:47.176000', '0:00:54.592000')]</t>
+          <t>('0:00:25.480000', '0:00:34.500000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:29.888683', '0:00:38.514896')]</t>
+          <t>('0:00:38.578071', '0:00:46.066507')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-152#t=47.176']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-143#t=25.48</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-114#t=29.888683']</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-245#t=38.578071</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_208</t>
+          <t>isophonics_173</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_225</t>
+          <t>schubert-winterreise_128</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:min', 'D:min/A']]</t>
+          <t>['A', 'F#:min', 'B:min']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min/b7']]</t>
+          <t>['G:maj', 'E:min', 'A:min/C']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:28.960000', '0:00:49.060000')]</t>
+          <t>('0:00:17.670317', '0:00:31.045011')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:40.049000', '0:00:48.539000')]</t>
+          <t>('0:00:08.280000', '0:00:17.020000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-208#t=28.96']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-173#t=17.670317</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-225#t=40.049']</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=8.28</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_160</t>
+          <t>schubert-winterreise_7</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
+          <t>isophonics_248</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['Db/2', 'Ab:maj', 'Ab:7']]</t>
+          <t>['F:maj/A', 'C:maj/G', 'F:maj']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['A#:maj/D', 'F:maj/C', 'F:7/D#']]</t>
+          <t>['G', 'D/3', 'G']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:01:30.236000', '0:01:38.612000')]</t>
+          <t>('0:00:30.820000', '0:00:32.980000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:01:03.740000', '0:01:09.060000')]</t>
+          <t>('0:00:14.414000', '0:00:17.044000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-160#t=90.236']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-7#t=30.82</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-132#t=63.74']</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-248#t=14.414</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
